--- a/data/trans_orig/iP30B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60008940-540D-4388-BF74-1D83298E2D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB8D2CC9-2EA1-4E95-BAC3-44194D81DA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A0F56C6B-873C-4D2B-9E26-17A24DA479AD}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A2328DE1-0537-48D2-8C9D-EC9C24D23AB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,12 +65,111 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>1,29%</t>
   </si>
   <si>
@@ -98,9 +197,6 @@
     <t>3,66%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>98,71%</t>
   </si>
   <si>
@@ -128,64 +224,49 @@
     <t>98,89%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -231,87 +312,6 @@
   </si>
   <si>
     <t>98,38%</t>
-  </si>
-  <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
   </si>
   <si>
     <t>0,93%</t>
@@ -757,7 +757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DABD5DA-4FBF-4454-9744-67DDBBC0B37C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B252436D-FD66-4E52-9F81-3F7AE50F1044}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -875,10 +875,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3142</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -890,85 +890,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>5820</v>
+        <v>657</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>657</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>13</v>
-      </c>
-      <c r="N4" s="7">
-        <v>8961</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7">
+        <v>11397</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>319</v>
-      </c>
-      <c r="D5" s="7">
-        <v>239771</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="7">
+        <v>25</v>
+      </c>
+      <c r="I5" s="7">
+        <v>15342</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>261</v>
-      </c>
-      <c r="I5" s="7">
-        <v>182097</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
+        <v>42</v>
+      </c>
+      <c r="N5" s="7">
+        <v>26738</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>580</v>
-      </c>
-      <c r="N5" s="7">
-        <v>421869</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -977,54 +977,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7">
-        <v>242913</v>
+        <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>187917</v>
+        <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>593</v>
+        <v>43</v>
       </c>
       <c r="N6" s="7">
-        <v>430830</v>
+        <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1036,13 +1036,13 @@
         <v>412</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -1051,13 +1051,13 @@
         <v>1760</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -1066,19 +1066,19 @@
         <v>2172</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
         <v>146</v>
@@ -1087,13 +1087,13 @@
         <v>112036</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
         <v>159</v>
@@ -1102,13 +1102,13 @@
         <v>99875</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>305</v>
@@ -1117,13 +1117,13 @@
         <v>211911</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1138,13 +1138,13 @@
         <v>112448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -1153,13 +1153,13 @@
         <v>101635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -1168,117 +1168,117 @@
         <v>214083</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>2053</v>
+        <v>3142</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>8125</v>
+        <v>5820</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>13</v>
       </c>
       <c r="N10" s="7">
-        <v>10178</v>
+        <v>8961</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>230</v>
+        <v>319</v>
       </c>
       <c r="D11" s="7">
-        <v>169403</v>
+        <v>239771</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="7">
+        <v>261</v>
+      </c>
+      <c r="I11" s="7">
+        <v>182097</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>580</v>
+      </c>
+      <c r="N11" s="7">
+        <v>421869</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="7">
-        <v>224</v>
-      </c>
-      <c r="I11" s="7">
-        <v>160365</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="M11" s="7">
-        <v>454</v>
-      </c>
-      <c r="N11" s="7">
-        <v>329769</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1287,153 +1287,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>232</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>171456</v>
+        <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>235</v>
+        <v>269</v>
       </c>
       <c r="I12" s="7">
-        <v>168490</v>
+        <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>467</v>
+        <v>593</v>
       </c>
       <c r="N12" s="7">
-        <v>339947</v>
+        <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>992</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2439</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>5</v>
+      </c>
+      <c r="N13" s="7">
+        <v>3431</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>657</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1</v>
-      </c>
-      <c r="N13" s="7">
-        <v>657</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>17</v>
+        <v>219</v>
       </c>
       <c r="D14" s="7">
-        <v>11397</v>
+        <v>170127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="7">
+        <v>219</v>
+      </c>
+      <c r="I14" s="7">
+        <v>164129</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" s="7">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>15342</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M14" s="7">
+        <v>438</v>
+      </c>
+      <c r="N14" s="7">
+        <v>334256</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M14" s="7">
-        <v>42</v>
-      </c>
-      <c r="N14" s="7">
-        <v>26738</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,49 +1442,49 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>17</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>11397</v>
+        <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="I15" s="7">
-        <v>15999</v>
+        <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>43</v>
+        <v>443</v>
       </c>
       <c r="N15" s="7">
-        <v>27395</v>
+        <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1495,61 +1495,61 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>992</v>
+        <v>2053</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I16" s="7">
-        <v>2439</v>
+        <v>8125</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>3431</v>
+        <v>10178</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D17" s="7">
-        <v>170127</v>
+        <v>169403</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>85</v>
@@ -1558,13 +1558,13 @@
         <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="I17" s="7">
-        <v>164129</v>
+        <v>160365</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>87</v>
@@ -1573,19 +1573,19 @@
         <v>88</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="M17" s="7">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="N17" s="7">
-        <v>334256</v>
+        <v>329769</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>91</v>
@@ -1597,49 +1597,49 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D18" s="7">
-        <v>171119</v>
+        <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="I18" s="7">
-        <v>166568</v>
+        <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N18" s="7">
-        <v>337687</v>
+        <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,7 +1698,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7">
         <v>931</v>
@@ -1758,13 +1758,13 @@
         <v>709334</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="H21" s="7">
         <v>915</v>
@@ -1773,13 +1773,13 @@
         <v>640609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M21" s="7">
         <v>1855</v>
@@ -1788,13 +1788,13 @@
         <v>1349942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB8D2CC9-2EA1-4E95-BAC3-44194D81DA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{26833DE0-1E8C-4D57-98FF-6459314FAE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A2328DE1-0537-48D2-8C9D-EC9C24D23AB9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5786656A-1E0D-42F1-97F4-E76A2838E824}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
   <si>
     <t>Menores según si desayunan todos los días en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
@@ -68,6 +68,30 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -92,190 +116,196 @@
     <t>12,35%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>98,27%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,12%</t>
+    <t>1,94%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,12%</t>
+    <t>2,71%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>3,98%</t>
+    <t>4,06%</t>
   </si>
   <si>
     <t>4,82%</t>
@@ -284,88 +314,61 @@
     <t>2,44%</t>
   </si>
   <si>
-    <t>8,7%</t>
+    <t>8,44%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
     <t>1,77%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -472,39 +475,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -556,7 +559,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -667,13 +670,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -682,6 +678,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -746,19 +749,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B252436D-FD66-4E52-9F81-3F7AE50F1044}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC96B104-8215-485F-A42E-80A9D01BD568}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -875,10 +898,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>11397</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -890,34 +913,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>657</v>
+        <v>15342</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>657</v>
+        <v>26738</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -926,10 +949,10 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>11397</v>
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -941,34 +964,34 @@
         <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>15342</v>
+        <v>657</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>26738</v>
+        <v>657</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -983,13 +1006,13 @@
         <v>11397</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>26</v>
@@ -998,13 +1021,13 @@
         <v>15999</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -1013,13 +1036,13 @@
         <v>27395</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1030,25 +1053,25 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7">
-        <v>412</v>
+        <v>112036</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>159</v>
       </c>
       <c r="I7" s="7">
-        <v>1760</v>
+        <v>99875</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>29</v>
@@ -1060,10 +1083,10 @@
         <v>31</v>
       </c>
       <c r="M7" s="7">
-        <v>4</v>
+        <v>305</v>
       </c>
       <c r="N7" s="7">
-        <v>2172</v>
+        <v>211911</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>32</v>
@@ -1081,25 +1104,25 @@
         <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>112036</v>
+        <v>412</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="H8" s="7">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>99875</v>
+        <v>1760</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>37</v>
@@ -1111,10 +1134,10 @@
         <v>39</v>
       </c>
       <c r="M8" s="7">
-        <v>305</v>
+        <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>211911</v>
+        <v>2172</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>40</v>
@@ -1138,13 +1161,13 @@
         <v>112448</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
         <v>162</v>
@@ -1153,13 +1176,13 @@
         <v>101635</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
         <v>309</v>
@@ -1168,13 +1191,13 @@
         <v>214083</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1185,10 +1208,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>5</v>
+        <v>319</v>
       </c>
       <c r="D10" s="7">
-        <v>3142</v>
+        <v>239771</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>44</v>
@@ -1200,10 +1223,10 @@
         <v>46</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>261</v>
       </c>
       <c r="I10" s="7">
-        <v>5820</v>
+        <v>182097</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>47</v>
@@ -1215,10 +1238,10 @@
         <v>49</v>
       </c>
       <c r="M10" s="7">
-        <v>13</v>
+        <v>580</v>
       </c>
       <c r="N10" s="7">
-        <v>8961</v>
+        <v>421869</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
@@ -1236,10 +1259,10 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>319</v>
+        <v>5</v>
       </c>
       <c r="D11" s="7">
-        <v>239771</v>
+        <v>3142</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>53</v>
@@ -1251,10 +1274,10 @@
         <v>55</v>
       </c>
       <c r="H11" s="7">
-        <v>261</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>182097</v>
+        <v>5820</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>56</v>
@@ -1266,10 +1289,10 @@
         <v>58</v>
       </c>
       <c r="M11" s="7">
-        <v>580</v>
+        <v>13</v>
       </c>
       <c r="N11" s="7">
-        <v>421869</v>
+        <v>8961</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>59</v>
@@ -1293,13 +1316,13 @@
         <v>242913</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H12" s="7">
         <v>269</v>
@@ -1308,13 +1331,13 @@
         <v>187917</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M12" s="7">
         <v>593</v>
@@ -1323,13 +1346,13 @@
         <v>430830</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,49 +1363,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>219</v>
       </c>
       <c r="D13" s="7">
-        <v>992</v>
+        <v>170127</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="I13" s="7">
-        <v>2439</v>
+        <v>164129</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>65</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>438</v>
       </c>
       <c r="N13" s="7">
-        <v>3431</v>
+        <v>334256</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1391,49 +1414,49 @@
         <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>219</v>
+        <v>1</v>
       </c>
       <c r="D14" s="7">
-        <v>170127</v>
+        <v>992</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>219</v>
+        <v>4</v>
       </c>
       <c r="I14" s="7">
-        <v>164129</v>
+        <v>2439</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
-        <v>438</v>
+        <v>5</v>
       </c>
       <c r="N14" s="7">
-        <v>334256</v>
+        <v>3431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1448,13 +1471,13 @@
         <v>171119</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>223</v>
@@ -1463,13 +1486,13 @@
         <v>166568</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>443</v>
@@ -1478,66 +1501,66 @@
         <v>337687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="D16" s="7">
-        <v>2053</v>
+        <v>169403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>224</v>
       </c>
       <c r="I16" s="7">
-        <v>8125</v>
+        <v>160365</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>13</v>
+        <v>454</v>
       </c>
       <c r="N16" s="7">
-        <v>10178</v>
+        <v>329769</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1546,49 +1569,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>230</v>
+        <v>2</v>
       </c>
       <c r="D17" s="7">
-        <v>169403</v>
+        <v>2053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
-        <v>224</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>160365</v>
+        <v>8125</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
-        <v>454</v>
+        <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>329769</v>
+        <v>10178</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1603,13 +1626,13 @@
         <v>171456</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H18" s="7">
         <v>235</v>
@@ -1618,13 +1641,13 @@
         <v>168490</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M18" s="7">
         <v>467</v>
@@ -1633,13 +1656,13 @@
         <v>339947</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1650,49 +1673,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>9</v>
+        <v>931</v>
       </c>
       <c r="D19" s="7">
-        <v>6599</v>
+        <v>702734</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="H19" s="7">
-        <v>27</v>
+        <v>888</v>
       </c>
       <c r="I19" s="7">
-        <v>18801</v>
+        <v>621808</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="M19" s="7">
-        <v>36</v>
+        <v>1819</v>
       </c>
       <c r="N19" s="7">
-        <v>25400</v>
+        <v>1324542</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1701,40 +1724,40 @@
         <v>18</v>
       </c>
       <c r="C20" s="7">
-        <v>931</v>
+        <v>9</v>
       </c>
       <c r="D20" s="7">
-        <v>702735</v>
+        <v>6599</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H20" s="7">
-        <v>888</v>
+        <v>27</v>
       </c>
       <c r="I20" s="7">
-        <v>621808</v>
+        <v>18801</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>105</v>
+        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>106</v>
       </c>
       <c r="M20" s="7">
-        <v>1819</v>
+        <v>36</v>
       </c>
       <c r="N20" s="7">
-        <v>1324542</v>
+        <v>25400</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>107</v>
@@ -1755,16 +1778,16 @@
         <v>940</v>
       </c>
       <c r="D21" s="7">
-        <v>709334</v>
+        <v>709333</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
         <v>915</v>
@@ -1773,13 +1796,13 @@
         <v>640609</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
         <v>1855</v>
@@ -1788,13 +1811,18 @@
         <v>1349942</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/iP30B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B4_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{26833DE0-1E8C-4D57-98FF-6459314FAE8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{840CC320-C5EA-4094-9DB9-6D871B4C07CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5786656A-1E0D-42F1-97F4-E76A2838E824}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AE019FE-371F-450E-8386-75E87075163B}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -83,13 +83,13 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>77,98%</t>
+    <t>76,78%</t>
   </si>
   <si>
     <t>97,6%</t>
   </si>
   <si>
-    <t>87,65%</t>
+    <t>85,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,172 +107,166 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>22,02%</t>
+    <t>23,22%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>99,63%</t>
   </si>
   <si>
-    <t>98,06%</t>
+    <t>97,78%</t>
   </si>
   <si>
     <t>98,27%</t>
   </si>
   <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
   </si>
   <si>
     <t>98,99%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>1,94%</t>
+    <t>2,22%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
   <si>
     <t>96,9%</t>
   </si>
   <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
   </si>
   <si>
     <t>97,92%</t>
   </si>
   <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
   </si>
   <si>
     <t>1,29%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>3,1%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
   </si>
   <si>
     <t>2,08%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>99,42%</t>
   </si>
   <si>
-    <t>97,29%</t>
+    <t>97,05%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>96,51%</t>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
   </si>
   <si>
     <t>99,66%</t>
   </si>
   <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,95%</t>
   </si>
   <si>
     <t>1,46%</t>
   </si>
   <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
     <t>0,34%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
+    <t>2,54%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -281,91 +275,97 @@
     <t>98,8%</t>
   </si>
   <si>
-    <t>95,94%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>95,18%</t>
   </si>
   <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>4,06%</t>
+    <t>4,18%</t>
   </si>
   <si>
     <t>4,82%</t>
   </si>
   <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
   </si>
   <si>
     <t>2,99%</t>
   </si>
   <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
   </si>
   <si>
     <t>99,07%</t>
   </si>
   <si>
-    <t>98,23%</t>
+    <t>98,25%</t>
   </si>
   <si>
     <t>97,07%</t>
   </si>
   <si>
-    <t>95,8%</t>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>98,12%</t>
   </si>
   <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
   </si>
   <si>
     <t>0,93%</t>
   </si>
   <si>
-    <t>1,77%</t>
+    <t>1,75%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>4,2%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -780,7 +780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC96B104-8215-485F-A42E-80A9D01BD568}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E67D-E683-4C45-B97C-062D3DF4FDE2}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1390,7 +1390,7 @@
         <v>66</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="M13" s="7">
         <v>438</v>
@@ -1399,13 +1399,13 @@
         <v>334256</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1420,13 +1420,13 @@
         <v>992</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -1435,13 +1435,13 @@
         <v>2439</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1450,13 +1450,13 @@
         <v>3431</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1512,7 +1512,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1524,10 +1524,10 @@
         <v>169403</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
@@ -1539,13 +1539,13 @@
         <v>160365</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>454</v>
@@ -1554,13 +1554,13 @@
         <v>329769</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1575,13 +1575,13 @@
         <v>2053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>11</v>
@@ -1590,13 +1590,13 @@
         <v>8125</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
@@ -1605,13 +1605,13 @@
         <v>10178</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1679,13 +1679,13 @@
         <v>702734</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
         <v>888</v>
@@ -1694,13 +1694,13 @@
         <v>621808</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M19" s="7">
         <v>1819</v>
@@ -1709,13 +1709,13 @@
         <v>1324542</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1730,13 +1730,13 @@
         <v>6599</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -1745,10 +1745,10 @@
         <v>18801</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>106</v>

--- a/data/trans_orig/iP30B4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/iP30B4_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{840CC320-C5EA-4094-9DB9-6D871B4C07CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E2D7EA8-467F-4BE1-BA0D-7A035F14F8C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1AE019FE-371F-450E-8386-75E87075163B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A6DE21F2-B332-45C8-9CA9-391540041910}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="103">
   <si>
     <t>Menores según si desayunan todos los días en 2023 (Tasa respuesta: 96,61%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,307 +65,283 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>89,47%</t>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>0,45%</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>98,71%</t>
   </si>
   <si>
-    <t>96,79%</t>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>99,59%</t>
   </si>
   <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -780,8 +756,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B401E67D-E683-4C45-B97C-062D3DF4FDE2}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4F1B2A6-CB23-4CA9-84C9-B04929208A8F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -898,10 +874,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>184</v>
       </c>
       <c r="D4" s="7">
-        <v>11397</v>
+        <v>111862</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -913,10 +889,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>163</v>
       </c>
       <c r="I4" s="7">
-        <v>15342</v>
+        <v>136396</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -925,73 +901,73 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>347</v>
       </c>
       <c r="N4" s="7">
-        <v>26738</v>
+        <v>248259</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2389</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>657</v>
+        <v>419</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N5" s="7">
-        <v>657</v>
+        <v>2807</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1000,153 +976,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>114251</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>164</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136815</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>352</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>251066</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="D7" s="7">
-        <v>112036</v>
+        <v>180484</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>159</v>
+        <v>319</v>
       </c>
       <c r="I7" s="7">
-        <v>99875</v>
+        <v>244284</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>305</v>
+        <v>580</v>
       </c>
       <c r="N7" s="7">
-        <v>211911</v>
+        <v>424768</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>412</v>
+        <v>5630</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7">
-        <v>1760</v>
+        <v>3236</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="N8" s="7">
-        <v>2172</v>
+        <v>8866</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1155,153 +1131,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="D9" s="7">
-        <v>112448</v>
+        <v>186114</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>101635</v>
+        <v>247520</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>309</v>
+        <v>593</v>
       </c>
       <c r="N9" s="7">
-        <v>214083</v>
+        <v>433634</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="D10" s="7">
-        <v>239771</v>
+        <v>185813</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="I10" s="7">
-        <v>182097</v>
+        <v>182050</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="M10" s="7">
-        <v>580</v>
+        <v>438</v>
       </c>
       <c r="N10" s="7">
-        <v>421869</v>
+        <v>367864</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7">
+        <v>2436</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1039</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="7">
         <v>5</v>
       </c>
-      <c r="D11" s="7">
-        <v>3142</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5820</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="7">
-        <v>13</v>
-      </c>
       <c r="N11" s="7">
-        <v>8961</v>
+        <v>3475</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1310,153 +1286,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>223</v>
       </c>
       <c r="D12" s="7">
-        <v>242913</v>
+        <v>188249</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>187917</v>
+        <v>183089</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>593</v>
+        <v>443</v>
       </c>
       <c r="N12" s="7">
-        <v>430830</v>
+        <v>371339</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D13" s="7">
-        <v>170127</v>
+        <v>156525</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="I13" s="7">
-        <v>164129</v>
+        <v>175272</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M13" s="7">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="N13" s="7">
-        <v>334256</v>
+        <v>331797</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D14" s="7">
-        <v>992</v>
+        <v>7994</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H14" s="7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>2439</v>
+        <v>2037</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N14" s="7">
-        <v>3431</v>
+        <v>10031</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1465,153 +1441,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="D15" s="7">
-        <v>171119</v>
+        <v>164519</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="I15" s="7">
-        <v>166568</v>
+        <v>177309</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>443</v>
+        <v>467</v>
       </c>
       <c r="N15" s="7">
-        <v>337687</v>
+        <v>341828</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>230</v>
+        <v>888</v>
       </c>
       <c r="D16" s="7">
-        <v>169403</v>
+        <v>634685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
-        <v>224</v>
+        <v>931</v>
       </c>
       <c r="I16" s="7">
-        <v>160365</v>
+        <v>738002</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
-        <v>454</v>
+        <v>1819</v>
       </c>
       <c r="N16" s="7">
-        <v>329769</v>
+        <v>1372687</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="D17" s="7">
-        <v>2053</v>
+        <v>18449</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="H17" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>8125</v>
+        <v>6731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="M17" s="7">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="N17" s="7">
-        <v>10178</v>
+        <v>25180</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,217 +1596,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>915</v>
       </c>
       <c r="D18" s="7">
-        <v>171456</v>
+        <v>653134</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>235</v>
+        <v>940</v>
       </c>
       <c r="I18" s="7">
-        <v>168490</v>
+        <v>744733</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>467</v>
+        <v>1855</v>
       </c>
       <c r="N18" s="7">
-        <v>339947</v>
+        <v>1397867</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>931</v>
-      </c>
-      <c r="D19" s="7">
-        <v>702734</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="7">
-        <v>888</v>
-      </c>
-      <c r="I19" s="7">
-        <v>621808</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1819</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1324542</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>9</v>
-      </c>
-      <c r="D20" s="7">
-        <v>6599</v>
-      </c>
-      <c r="E20" s="7" t="s">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H20" s="7">
-        <v>27</v>
-      </c>
-      <c r="I20" s="7">
-        <v>18801</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="7">
-        <v>36</v>
-      </c>
-      <c r="N20" s="7">
-        <v>25400</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>940</v>
-      </c>
-      <c r="D21" s="7">
-        <v>709333</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="7">
-        <v>915</v>
-      </c>
-      <c r="I21" s="7">
-        <v>640609</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1855</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1349942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>110</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
